--- a/rainfall data norfolk.xlsx
+++ b/rainfall data norfolk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="460" windowWidth="10000" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="15280" yWindow="460" windowWidth="15420" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Month</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>Rainfall (mm)</t>
+  </si>
+  <si>
+    <t>Cloud (%)</t>
+  </si>
+  <si>
+    <t>Humidity (%)</t>
+  </si>
+  <si>
+    <t>Avg Temp(℃)</t>
+  </si>
+  <si>
+    <t>Average Wind Speed(kmph</t>
   </si>
 </sst>
 </file>
@@ -86,6 +98,1101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rainfall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for our area</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days of rain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43132.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43160.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43191.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43221.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43252.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43282.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43313.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43344.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43374.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43405.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43435.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rainfall (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43132.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43160.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43191.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43221.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43252.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43282.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43313.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43344.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43374.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43405.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43435.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1465818320"/>
+        <c:axId val="1416130064"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1465818320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1416130064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1416130064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465818320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,18 +1458,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,8 +1482,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43132</v>
       </c>
@@ -383,8 +1505,20 @@
       <c r="C2">
         <v>23.63</v>
       </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>27.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43160</v>
       </c>
@@ -394,8 +1528,20 @@
       <c r="C3">
         <v>40.479999999999997</v>
       </c>
+      <c r="D3">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>24.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43191</v>
       </c>
@@ -405,8 +1551,20 @@
       <c r="C4">
         <v>21.68</v>
       </c>
+      <c r="D4">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>21.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43221</v>
       </c>
@@ -416,8 +1574,20 @@
       <c r="C5">
         <v>9.35</v>
       </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>18.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43252</v>
       </c>
@@ -427,8 +1597,20 @@
       <c r="C6">
         <v>3.28</v>
       </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>15.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43282</v>
       </c>
@@ -438,8 +1620,20 @@
       <c r="C7">
         <v>13.58</v>
       </c>
+      <c r="D7">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>15.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43313</v>
       </c>
@@ -449,8 +1643,20 @@
       <c r="C8">
         <v>25.1</v>
       </c>
+      <c r="D8">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43344</v>
       </c>
@@ -460,8 +1666,20 @@
       <c r="C9">
         <v>3.89</v>
       </c>
+      <c r="D9">
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43374</v>
       </c>
@@ -471,8 +1689,20 @@
       <c r="C10">
         <v>58.86</v>
       </c>
+      <c r="D10">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>27.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43405</v>
       </c>
@@ -482,8 +1712,20 @@
       <c r="C11">
         <v>64.3</v>
       </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>29.8</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43435</v>
       </c>
@@ -493,11 +1735,24 @@
       <c r="C12">
         <v>120.2</v>
       </c>
+      <c r="D12">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>27.6</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/rainfall data norfolk.xlsx
+++ b/rainfall data norfolk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="460" windowWidth="15420" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,916 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> humidity and cloud </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humidity (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cloud (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1461339456"/>
+        <c:axId val="1461216480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1461339456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461216480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1461216480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461339456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average temperature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and windspeed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Temp(℃)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Wind Speed(kmph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1495642352"/>
+        <c:axId val="1498120960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1495642352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498120960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1498120960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1495642352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1160,20 +2069,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1187,6 +3102,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1460,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
